--- a/tables/table_23.xlsx
+++ b/tables/table_23.xlsx
@@ -11,6 +11,26 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Unnamed: 1</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>Unnamed: 2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,42 +386,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5">
+      <c r="B2">
         <v>6.1</v>
       </c>
-      <c r="B2">
+      <c r="D2">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3">
         <v>15.4</v>
       </c>
-      <c r="C2">
+      <c r="D3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4">
         <v>20.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4">
+      <c r="D4">
         <v>20.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
